--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,8 +735,60 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kun jij dit even regelen?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Testmail #1: Kun jij dit even regelen?</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Overig</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We pakken dit intern op en houden je op de hoogte.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:23:08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D2:D3">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -756,7 +808,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="G2:G3">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -764,17 +816,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
+  <conditionalFormatting sqref="H2:H3">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="I2:I3">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -816,7 +868,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -232,12 +232,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard'!$A$2</f>
+              <f>'Dashboard'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard'!$B$2</f>
+              <f>'Dashboard'!$B$2:$B$3</f>
             </numRef>
           </val>
         </ser>
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,8 +787,60 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wil je dit oppakken?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Testmail #2: Wil je dit oppakken?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Intern verzoek / Actie voor medewerker</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We pakken dit intern op en houden je op de hoogte.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:25:23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="D2:D4">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -808,7 +860,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="G2:G4">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -816,17 +868,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="H2:H4">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="I2:I4">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="J2:J4">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -841,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,6 +923,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Intern verzoek / Actie voor medewerker</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,8 +839,60 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kun jij dit afhandelen?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Testmail #3: Kun jij dit afhandelen?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Overig</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We pakken dit intern op en houden je op de hoogte.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:27:34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D4">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -860,7 +912,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G4">
+  <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -868,17 +920,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4">
+  <conditionalFormatting sqref="H2:H5">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
+  <conditionalFormatting sqref="I2:I5">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J4">
+  <conditionalFormatting sqref="J2:J5">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -920,7 +972,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -232,12 +232,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard'!$A$2:$A$3</f>
+              <f>'Dashboard'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard'!$B$2:$B$3</f>
+              <f>'Dashboard'!$B$2:$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,8 +891,63 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Wil je 100 stuks M5-bouten bestellen?</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Testmail #4: Wil je 100 stuks M5-bouten bestellen?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Bestelling / Levering</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Beste afzender,
+Bedankt voor je e-mail. Helaas kan ik je niet helpen met het plaatsen van bestellingen via e-mail. Je kunt onze webshop bezoeken om de gewenste M5-bouten te bestellen. Mocht je nog vragen hebben, aarzel dan niet om contact met ons op te nemen.
+Met vriendelijke groet,
+[Naam] - E-mailassistent</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:29:47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D5">
+  <conditionalFormatting sqref="D2:D6">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -912,7 +967,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G5">
+  <conditionalFormatting sqref="G2:G6">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -920,17 +975,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H5">
+  <conditionalFormatting sqref="H2:H6">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I5">
+  <conditionalFormatting sqref="I2:I6">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
+  <conditionalFormatting sqref="J2:J6">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -945,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,6 +1040,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bestelling / Levering</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,8 +946,60 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Wil je deze klant bellen?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Testmail #5: Wil je deze klant bellen?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Intern verzoek / Actie voor medewerker</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We pakken dit intern op en houden je op de hoogte.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:32:10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D6">
+  <conditionalFormatting sqref="D2:D7">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -967,7 +1019,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G6">
+  <conditionalFormatting sqref="G2:G7">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -975,17 +1027,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H6">
+  <conditionalFormatting sqref="H2:H7">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I6">
+  <conditionalFormatting sqref="I2:I7">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J6">
+  <conditionalFormatting sqref="J2:J7">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1037,7 +1089,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -232,12 +232,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard'!$A$2:$A$4</f>
+              <f>'Dashboard'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard'!$B$2:$B$4</f>
+              <f>'Dashboard'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -998,8 +998,63 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hebben we EcoPro-700 nog op voorraad?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Testmail #6: Hebben we EcoPro-700 nog op voorraad?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Productinformatie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Beste klant,
+Bedankt voor uw vraag. Op dit moment hebben we EcoPro-700 niet op voorraad. We verwachten binnenkort nieuwe voorraad binnen te krijgen. Mocht u nog vragen hebben of een pre-order willen plaatsen, neem dan gerust contact met ons op.
+Met vriendelijke groet,
+[Bedrijfsnaam]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:34:42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D7">
+  <conditionalFormatting sqref="D2:D8">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1019,7 +1074,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G7">
+  <conditionalFormatting sqref="G2:G8">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1027,17 +1082,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H7">
+  <conditionalFormatting sqref="H2:H8">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I7">
+  <conditionalFormatting sqref="I2:I8">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J7">
+  <conditionalFormatting sqref="J2:J8">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1052,7 +1107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1102,6 +1157,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Productinformatie</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,8 +1053,60 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Is dit artikel nog op voorraad?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Testmail #7: Is dit artikel nog op voorraad?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Productinformatie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We pakken dit intern op en houden je op de hoogte.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:36:52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D8">
+  <conditionalFormatting sqref="D2:D9">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1074,7 +1126,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G8">
+  <conditionalFormatting sqref="G2:G9">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1082,17 +1134,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H8">
+  <conditionalFormatting sqref="H2:H9">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I8">
+  <conditionalFormatting sqref="I2:I9">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J8">
+  <conditionalFormatting sqref="J2:J9">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1150,17 +1202,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bestelling / Levering</t>
+          <t>Productinformatie</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Productinformatie</t>
+          <t>Bestelling / Levering</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,8 +1105,63 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Kun je nagaan of dit nog leverbaar is?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Testmail #8: Kun je nagaan of dit nog leverbaar is?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Productinformatie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Beste klant,
+Dank voor uw e-mail. Om u beter van dienst te kunnen zijn, heb ik meer specifieke informatie nodig over het product waar u naar informeert. Kunt u ons het productnummer, de naam van het product of enige details geven zodat we het kunnen controleren in ons systeem? 
+Met vriendelijke groet,
+[Bedrijfsnaam]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:39:04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D9">
+  <conditionalFormatting sqref="D2:D10">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1126,7 +1181,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9">
+  <conditionalFormatting sqref="G2:G10">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1134,17 +1189,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
+  <conditionalFormatting sqref="H2:H10">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
+  <conditionalFormatting sqref="I2:I10">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J9">
+  <conditionalFormatting sqref="J2:J10">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1192,17 +1247,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intern verzoek / Actie voor medewerker</t>
+          <t>Productinformatie</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Productinformatie</t>
+          <t>Intern verzoek / Actie voor medewerker</t>
         </is>
       </c>
       <c r="B4" t="n">

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1160,8 +1160,60 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hoi, hebben jullie al iets gehoord?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Testmail #9: Hoi, hebben jullie al iets gehoord?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Overig</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We pakken dit intern op en houden je op de hoogte.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:41:15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D10">
+  <conditionalFormatting sqref="D2:D11">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1181,7 +1233,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G10">
+  <conditionalFormatting sqref="G2:G11">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1189,17 +1241,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H10">
+  <conditionalFormatting sqref="H2:H11">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I10">
+  <conditionalFormatting sqref="I2:I11">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J10">
+  <conditionalFormatting sqref="J2:J11">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1241,7 +1293,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1212,8 +1212,60 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Is er al nieuws?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Testmail #10: Is er al nieuws?</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Overig</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We pakken dit intern op en houden je op de hoogte.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:43:42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D11">
+  <conditionalFormatting sqref="D2:D12">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1233,7 +1285,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G11">
+  <conditionalFormatting sqref="G2:G12">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1241,17 +1293,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H11">
+  <conditionalFormatting sqref="H2:H12">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I11">
+  <conditionalFormatting sqref="I2:I12">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J11">
+  <conditionalFormatting sqref="J2:J12">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1293,7 +1345,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -232,12 +232,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard'!$A$2:$A$5</f>
+              <f>'Dashboard'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard'!$B$2:$B$5</f>
+              <f>'Dashboard'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1264,8 +1264,63 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mijn retour is nog steeds niet verwerkt.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Testmail #11: Mijn retour is nog steeds niet verwerkt.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Retour / Terugbetaling</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Beste klant,
+Bedankt voor je bericht. We begrijpen dat het vervelend is dat je retourzending nog niet verwerkt is. Om je verder te kunnen helpen, ontvangen we graag wat aanvullende informatie zoals het ordernummer van de retourzending. Zodra we deze gegevens hebben, zullen we direct voor je aan de slag gaan om het probleem op te lossen.
+Met vriendelijke groet,
+[Bedrijfsnaam] E-mailassistent</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:45:55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D12">
+  <conditionalFormatting sqref="D2:D13">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1285,7 +1340,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G12">
+  <conditionalFormatting sqref="G2:G13">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1293,17 +1348,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H12">
+  <conditionalFormatting sqref="H2:H13">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I12">
+  <conditionalFormatting sqref="I2:I13">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J12">
+  <conditionalFormatting sqref="J2:J13">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1318,7 +1373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1378,6 +1433,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Retour / Terugbetaling</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,8 +1319,63 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ik heb nog geen geld terug.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Testmail #12: Ik heb nog geen geld terug.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Retour / Terugbetaling</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Beste klant,
+Bedankt voor uw e-mail. Om uw vraag over het uitblijven van de terugbetaling te kunnen beantwoorden, hebben we wat meer informatie nodig. Kunt u ons alstublieft uw bestelnummer en de datum van de oorspronkelijke aankoop verstrekken? Op die manier kunnen we dit verder voor u onderzoeken en u zo snel mogelijk van dienst zijn.
+Met vriendelijke groet,
+[Bedrijfsnaam] e-mailassistent</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:48:06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D13">
+  <conditionalFormatting sqref="D2:D14">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1340,7 +1395,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G13">
+  <conditionalFormatting sqref="G2:G14">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1348,17 +1403,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H13">
+  <conditionalFormatting sqref="H2:H14">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I13">
+  <conditionalFormatting sqref="I2:I14">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J13">
+  <conditionalFormatting sqref="J2:J14">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1426,17 +1481,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bestelling / Levering</t>
+          <t>Retour / Terugbetaling</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Retour / Terugbetaling</t>
+          <t>Bestelling / Levering</t>
         </is>
       </c>
       <c r="B6" t="n">

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1374,8 +1374,64 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kun je mij de datasheet van de VentiQ-250 sturen?</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Testmail #13: Kun je mij de datasheet van de VentiQ-250 sturen?</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Productinformatie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Beste klant,
+Bedankt voor je interesse in de VentiQ-250. Helaas kunnen we op basis van je e-mailadres geen datasheet vinden. Zou je ons kunnen voorzien van meer informatie, zoals je volledige naam, bedrijfsnaam of eventuele andere gegevens waaronder de datasheet geregistreerd staat? Hiermee kunnen we je beter van dienst zijn en de datasheet naar je opsturen.
+Met vriendelijke groet,
+[Jouw naam]
+E-mailassistent</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:50:21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D14">
+  <conditionalFormatting sqref="D2:D15">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1395,7 +1451,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G14">
+  <conditionalFormatting sqref="G2:G15">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1403,17 +1459,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H14">
+  <conditionalFormatting sqref="H2:H15">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I14">
+  <conditionalFormatting sqref="I2:I15">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J14">
+  <conditionalFormatting sqref="J2:J15">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1465,7 +1521,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,8 +1430,64 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Heb je de CE-certificaten van dit product?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Testmail #14: Heb je de CE-certificaten van dit product?</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Productinformatie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Geachte klant,
+Dank u voor uw e-mail. Voor het verkrijgen van de CE-certificaten van het product waar u naar vraagt, verzoeken wij u ons het specifieke productnummer of de productnaam te verstrekken. Met deze informatie kunnen wij u de relevante certificaten verstrekken.
+Als u verdere vragen heeft of meer ondersteuning nodig heeft, aarzel dan niet om contact met ons op te nemen.
+Met vriendelijke groet,
+[Naam] E-mailassistent - [Bedrijfsnaam]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:52:33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D15">
+  <conditionalFormatting sqref="D2:D16">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1451,7 +1507,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G15">
+  <conditionalFormatting sqref="G2:G16">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1459,17 +1515,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H15">
+  <conditionalFormatting sqref="H2:H16">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I15">
+  <conditionalFormatting sqref="I2:I16">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J15">
+  <conditionalFormatting sqref="J2:J16">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1521,7 +1577,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1486,8 +1486,60 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Leg dit even neer bij Koen.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Testmail #15: Leg dit even neer bij Koen.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Intern verzoek / Actie voor medewerker</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We pakken dit intern op en houden je op de hoogte.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:54:44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D16">
+  <conditionalFormatting sqref="D2:D17">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1507,7 +1559,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G16">
+  <conditionalFormatting sqref="G2:G17">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1515,17 +1567,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H16">
+  <conditionalFormatting sqref="H2:H17">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I16">
+  <conditionalFormatting sqref="I2:I17">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J16">
+  <conditionalFormatting sqref="J2:J17">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1587,7 +1639,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1538,8 +1538,60 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Wil je dit even doorsturen?</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Testmail #16: Wil je dit even doorsturen?</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Intern verzoek / Actie voor medewerker</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We pakken dit intern op en houden je op de hoogte.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:56:55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D17">
+  <conditionalFormatting sqref="D2:D18">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1559,7 +1611,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G17">
+  <conditionalFormatting sqref="G2:G18">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1567,17 +1619,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17">
+  <conditionalFormatting sqref="H2:H18">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I17">
+  <conditionalFormatting sqref="I2:I18">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J17">
+  <conditionalFormatting sqref="J2:J18">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1639,7 +1691,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -232,12 +232,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard'!$A$2:$A$6</f>
+              <f>'Dashboard'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard'!$B$2:$B$6</f>
+              <f>'Dashboard'!$B$2:$B$7</f>
             </numRef>
           </val>
         </ser>
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1590,8 +1590,63 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Kun je vrijdag om 11:00 een demo inplannen bij Van Dijk?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Testmail #17: Kun je vrijdag om 11:00 een demo inplannen bij Van Dijk?</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Planning / Afspraak</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Beste,
+Bedank u voor uw e-mail. Ik zal een demo inplannen bij Van Dijk op vrijdag om 11:00 uur. 
+Met vriendelijke groet,
+[Naam bedrijf]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-07-31 21:59:14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D18">
+  <conditionalFormatting sqref="D2:D19">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1611,7 +1666,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G18">
+  <conditionalFormatting sqref="G2:G19">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1619,17 +1674,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H18">
+  <conditionalFormatting sqref="H2:H19">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I18">
+  <conditionalFormatting sqref="I2:I19">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J18">
+  <conditionalFormatting sqref="J2:J19">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1644,7 +1699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1714,6 +1769,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Planning / Afspraak</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1645,8 +1645,64 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Bestel je 200 stuks M8-bouten RVS voor Van Dijk?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Testmail #18: Bestel je 200 stuks M8-bouten RVS voor Van Dijk?</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Bestelling / Levering</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Beste klant,
+Bedankt voor je e-mail. Helaas kan ik je in dit geval niet verder helpen met je bestelling van 200 stuks M8-bouten RVS voor Van Dijk. Ik raad je aan om contact op te nemen met onze verkoopafdeling of een van onze vertegenwoordigers, zodat zij je verder kunnen assisteren met het plaatsen van deze bestelling.
+Mocht je nog andere vragen hebben of hulp nodig hebben, laat het ons gerust weten.
+Met vriendelijke groet,
+[Naam] E-mailassistent bij [Bedrijfsnaam]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:01:55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D19">
+  <conditionalFormatting sqref="D2:D20">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1666,7 +1722,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G19">
+  <conditionalFormatting sqref="G2:G20">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1674,17 +1730,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H19">
+  <conditionalFormatting sqref="H2:H20">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I19">
+  <conditionalFormatting sqref="I2:I20">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J19">
+  <conditionalFormatting sqref="J2:J20">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1752,7 +1808,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Retour / Terugbetaling</t>
+          <t>Bestelling / Levering</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1762,11 +1818,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bestelling / Levering</t>
+          <t>Retour / Terugbetaling</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1701,8 +1701,60 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Bel jij klant Jansen even?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Testmail #19: Bel jij klant Jansen even?</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Intern verzoek / Actie voor medewerker</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We pakken dit intern op en houden je op de hoogte.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:04:06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D20">
+  <conditionalFormatting sqref="D2:D21">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1722,7 +1774,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G20">
+  <conditionalFormatting sqref="G2:G21">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1730,17 +1782,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H20">
+  <conditionalFormatting sqref="H2:H21">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I20">
+  <conditionalFormatting sqref="I2:I21">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J20">
+  <conditionalFormatting sqref="J2:J21">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1788,7 +1840,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Productinformatie</t>
+          <t>Intern verzoek / Actie voor medewerker</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1798,11 +1850,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intern verzoek / Actie voor medewerker</t>
+          <t>Productinformatie</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">

--- a/logs/mail_log_2025-07-31.xlsx
+++ b/logs/mail_log_2025-07-31.xlsx
@@ -232,12 +232,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard'!$A$2:$A$7</f>
+              <f>'Dashboard'!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard'!$B$2:$B$7</f>
+              <f>'Dashboard'!$B$2:$B$8</f>
             </numRef>
           </val>
         </ser>
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,8 +1753,60 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ik ben niet tevreden over hoe dit is gegaan.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Testmail #20: Ik ben niet tevreden over hoe dit is gegaan.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Klacht / Probleem</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We pakken dit intern op en houden je op de hoogte.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:06:18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D21">
+  <conditionalFormatting sqref="D2:D22">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1774,7 +1826,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G21">
+  <conditionalFormatting sqref="G2:G22">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1782,17 +1834,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H21">
+  <conditionalFormatting sqref="H2:H22">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I21">
+  <conditionalFormatting sqref="I2:I22">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J21">
+  <conditionalFormatting sqref="J2:J22">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1807,7 +1859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1887,6 +1939,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Klacht / Probleem</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
